--- a/teaching/voc_data_science/topic1/lameness_Herd_C.xlsx
+++ b/teaching/voc_data_science/topic1/lameness_Herd_C.xlsx
@@ -366,17 +366,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>98136</t>
+          <t>15677</t>
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>35706</t>
+          <t>60864</t>
         </is>
       </c>
       <c r="B3">
@@ -386,7 +386,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>37177</t>
+          <t>81875</t>
         </is>
       </c>
       <c r="B4">
@@ -396,7 +396,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>75945</t>
+          <t>23389</t>
         </is>
       </c>
       <c r="B5">
@@ -406,7 +406,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>33775</t>
+          <t>13829</t>
         </is>
       </c>
       <c r="B6">
@@ -416,17 +416,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>77751</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>0</v>
+          <t>07596</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not being milked due to clinical mastitis</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>40826</t>
+          <t>40285</t>
         </is>
       </c>
       <c r="B8">
@@ -436,7 +438,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09233</t>
+          <t>28571</t>
         </is>
       </c>
       <c r="B9">
@@ -446,7 +448,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>85143</t>
+          <t>05305</t>
         </is>
       </c>
       <c r="B10">
@@ -456,27 +458,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>82269</t>
+          <t>20656</t>
         </is>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12073</t>
+          <t>35943</t>
         </is>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15259</t>
+          <t>78505</t>
         </is>
       </c>
       <c r="B13">
@@ -486,7 +488,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>75170</t>
+          <t>40654</t>
         </is>
       </c>
       <c r="B14">
@@ -496,7 +498,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13763</t>
+          <t>70233</t>
         </is>
       </c>
       <c r="B15">
@@ -506,7 +508,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>55816</t>
+          <t>26654</t>
         </is>
       </c>
       <c r="B16">
@@ -516,7 +518,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>07366</t>
+          <t>80194</t>
         </is>
       </c>
       <c r="B17">
@@ -526,29 +528,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>31700</t>
+          <t>80614</t>
         </is>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>24673</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Walked in front of another cow</t>
-        </is>
+          <t>30708</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08326</t>
+          <t>13011</t>
         </is>
       </c>
       <c r="B20">
@@ -558,17 +558,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>74029</t>
+          <t>81448</t>
         </is>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>82424</t>
+          <t>30324</t>
         </is>
       </c>
       <c r="B22">
@@ -578,17 +578,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>51050</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>0</v>
+          <t>93218</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Not being milked due to clinical mastitis</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25254</t>
+          <t>58817</t>
         </is>
       </c>
       <c r="B24">
@@ -598,7 +600,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>42150</t>
+          <t>21603</t>
         </is>
       </c>
       <c r="B25">
@@ -608,7 +610,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>15149</t>
+          <t>84045</t>
         </is>
       </c>
       <c r="B26">
@@ -618,17 +620,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>29634</t>
+          <t>98492</t>
         </is>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>37309</t>
+          <t>14116</t>
         </is>
       </c>
       <c r="B28">
@@ -638,7 +640,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04331</t>
+          <t>67775</t>
         </is>
       </c>
       <c r="B29">
@@ -648,7 +650,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13613</t>
+          <t>16065</t>
         </is>
       </c>
       <c r="B30">
@@ -658,7 +660,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04440</t>
+          <t>51579</t>
         </is>
       </c>
       <c r="B31">
@@ -668,7 +670,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>61526</t>
+          <t>00194</t>
         </is>
       </c>
       <c r="B32">
@@ -678,17 +680,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>83595</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>0</v>
+          <t>96132</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Walked in front of another cow</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>97755</t>
+          <t>50774</t>
         </is>
       </c>
       <c r="B34">
@@ -698,7 +702,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>24397</t>
+          <t>99302</t>
         </is>
       </c>
       <c r="B35">
@@ -708,7 +712,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>24866</t>
+          <t>50895</t>
         </is>
       </c>
       <c r="B36">
@@ -718,7 +722,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>47778</t>
+          <t>42712</t>
         </is>
       </c>
       <c r="B37">
@@ -728,7 +732,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>97496</t>
+          <t>04793</t>
         </is>
       </c>
       <c r="B38">
@@ -738,7 +742,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>73703</t>
+          <t>96195</t>
         </is>
       </c>
       <c r="B39">
@@ -748,7 +752,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01629</t>
+          <t>93604</t>
         </is>
       </c>
       <c r="B40">
@@ -758,7 +762,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>91814</t>
+          <t>27887</t>
         </is>
       </c>
       <c r="B41">
@@ -768,7 +772,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>63233</t>
+          <t>57635</t>
         </is>
       </c>
       <c r="B42">
@@ -778,7 +782,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>29178</t>
+          <t>51078</t>
         </is>
       </c>
       <c r="B43">
@@ -788,19 +792,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>70735</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Not being milked due to clinical mastitis</t>
-        </is>
+          <t>45360</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>12046</t>
+          <t>71880</t>
         </is>
       </c>
       <c r="B45">
@@ -810,7 +812,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>46475</t>
+          <t>34504</t>
         </is>
       </c>
       <c r="B46">
@@ -820,7 +822,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>56388</t>
+          <t>23926</t>
         </is>
       </c>
       <c r="B47">
@@ -830,7 +832,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>02812</t>
+          <t>09833</t>
         </is>
       </c>
       <c r="B48">
@@ -840,7 +842,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>18680</t>
+          <t>43064</t>
         </is>
       </c>
       <c r="B49">
@@ -850,7 +852,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>97347</t>
+          <t>25163</t>
         </is>
       </c>
       <c r="B50">
@@ -860,7 +862,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18727</t>
+          <t>33050</t>
         </is>
       </c>
       <c r="B51">
